--- a/data/Subset 1/Video Mosaic Grade 6 1 variable 8.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 1 variable 8.xlsx
@@ -703,7 +703,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -795,7 +795,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -841,7 +841,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -864,7 +864,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1048,7 +1048,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1071,7 +1071,7 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1094,7 +1094,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1117,7 +1117,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1163,7 +1163,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1255,7 +1255,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1282,7 +1282,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1351,7 +1351,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1397,7 +1397,7 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1443,7 +1443,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1489,7 +1489,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1516,7 +1516,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1608,7 +1608,7 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1631,7 +1631,7 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1658,7 +1658,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1796,7 +1796,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1865,7 +1865,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -1888,7 +1888,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2210,7 +2210,7 @@
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2233,7 +2233,7 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2256,7 +2256,7 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2279,7 +2279,7 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2302,7 +2302,7 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2325,7 +2325,7 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2348,7 +2348,7 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2371,7 +2371,7 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2394,7 +2394,7 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2417,7 +2417,7 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -2463,7 +2463,7 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2486,7 +2486,7 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2509,7 +2509,7 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2532,7 +2532,7 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2555,7 +2555,7 @@
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2578,7 +2578,7 @@
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2601,7 +2601,7 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2624,7 +2624,7 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2647,7 +2647,7 @@
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2670,7 +2670,7 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2693,7 +2693,7 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2808,7 +2808,7 @@
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -2854,7 +2854,7 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -2900,7 +2900,7 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -2946,7 +2946,7 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -2969,7 +2969,7 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3061,7 +3061,7 @@
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3084,7 +3084,7 @@
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3130,7 +3130,7 @@
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3176,7 +3176,7 @@
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3360,7 +3360,7 @@
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3383,7 +3383,7 @@
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3406,7 +3406,7 @@
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3475,7 +3475,7 @@
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -3498,7 +3498,7 @@
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -3521,7 +3521,7 @@
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3544,7 +3544,7 @@
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -3567,7 +3567,7 @@
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -3590,7 +3590,7 @@
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -3682,7 +3682,7 @@
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -3705,7 +3705,7 @@
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -3774,7 +3774,7 @@
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -3797,7 +3797,7 @@
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -3889,7 +3889,7 @@
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -3912,7 +3912,7 @@
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -3935,7 +3935,7 @@
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -3981,7 +3981,7 @@
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4004,7 +4004,7 @@
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4050,7 +4050,7 @@
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4119,7 +4119,7 @@
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4307,7 +4307,7 @@
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4330,7 +4330,7 @@
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -4399,7 +4399,7 @@
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -4422,7 +4422,7 @@
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Davis</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>3 - getting students to relate</t>
+          <t>3 - getting SS to relate</t>
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
@@ -4468,7 +4468,7 @@
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
